--- a/biology/Écologie/Zone_de_connexion_biologique/Zone_de_connexion_biologique.xlsx
+++ b/biology/Écologie/Zone_de_connexion_biologique/Zone_de_connexion_biologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de l'écologie du paysage et au sein d'un réseau écologique, une zone de connexion biologique est un espace où plusieurs corridors biologiques fonctionnent conjointement ; chaque corridor biologique désignant ici une (infra)structure naturelle ou semi-naturelle spécifique à la dispersion biologique d'une espèce ou d'une communauté d'espèces particulières, entre différentes taches d'habitats ou entre différents habitats (massifs forestiers, zones humides par exemple pour le Crapaud commun (Bufo bufo).
 Ces zones jouent un rôle de dispersion et de connexion entre différents corridors biologiques et leurs zones-tampons.
@@ -523,7 +535,9 @@
           <t>Évolution des zones de connexion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces zones sont de plus en plus fragmentées par les infrastructures de transport des biens, personnes et énergies, perturbant le fonctionnement des écosystèmes.
 Le morcellement de ces espaces est une cause reconnue de disparition d'espèces.
